--- a/InputMappings.xlsx
+++ b/InputMappings.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f8777753fb3871c/Documents/_Northumbria University Computer Science/Year 3/KV6013 - Computing Project/DJ_Tracker(Parasyte)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F99FBFC-95DB-48CC-88E2-296853343486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{7F99FBFC-95DB-48CC-88E2-296853343486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{051AD5E5-9F3E-4566-BFE9-E6799D104F15}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12192" xr2:uid="{86CA9F54-3CDF-4DCA-B10C-19BDCEA80441}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86CA9F54-3CDF-4DCA-B10C-19BDCEA80441}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -303,11 +302,16 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{551CEB23-CEE8-4D4B-A3FA-D102D0CAEFED}" name="Table1" displayName="Table1" ref="A1:I1048576" totalsRowShown="0">
   <autoFilter ref="A1:I1048576" xr:uid="{551CEB23-CEE8-4D4B-A3FA-D102D0CAEFED}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Deck_A"/>
+        <filter val="Mixer"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="5">
-      <filters>
-        <filter val="Button"/>
-        <filter val="JogWheel"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I80">
@@ -627,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7FB36C-82A1-495A-A3BC-0255FB535AAF}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I26" activeCellId="1" sqref="H24 I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -692,7 +696,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>34</v>
       </c>
@@ -718,7 +722,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>21</v>
       </c>
@@ -747,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -776,7 +780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>19</v>
       </c>
@@ -805,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>18</v>
       </c>
@@ -834,7 +838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>25</v>
       </c>
@@ -863,7 +867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>24</v>
       </c>
@@ -892,7 +896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>23</v>
       </c>
@@ -921,7 +925,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -941,7 +945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>22</v>
       </c>
@@ -999,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>35</v>
       </c>
@@ -1028,7 +1032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1077,7 +1081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1097,7 +1101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>32</v>
       </c>
@@ -1126,7 +1130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>28</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>29</v>
       </c>
@@ -1768,7 +1772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45</v>
       </c>
@@ -1817,7 +1821,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>51</v>
       </c>
@@ -1866,7 +1870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>49</v>
       </c>
@@ -1915,7 +1919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2100,7 +2104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2120,7 +2124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2140,7 +2144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2160,7 +2164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2180,7 +2184,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2200,7 +2204,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2220,7 +2224,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2240,7 +2244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>37</v>
       </c>
@@ -2269,7 +2273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43</v>
       </c>
@@ -2298,7 +2302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>41</v>
       </c>
@@ -2327,7 +2331,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2347,7 +2351,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2367,7 +2371,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2387,7 +2391,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2407,7 +2411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>39</v>
       </c>
@@ -2494,7 +2498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2514,7 +2518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2534,7 +2538,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>26</v>
       </c>
@@ -2563,7 +2567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>30</v>
       </c>
@@ -2592,7 +2596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>

--- a/InputMappings.xlsx
+++ b/InputMappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f8777753fb3871c/Documents/_Northumbria University Computer Science/Year 3/KV6013 - Computing Project/DJ_Tracker(Parasyte)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{7F99FBFC-95DB-48CC-88E2-296853343486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{051AD5E5-9F3E-4566-BFE9-E6799D104F15}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{7F99FBFC-95DB-48CC-88E2-296853343486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{999A7662-D26B-45AE-99C9-B20BC97C8301}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86CA9F54-3CDF-4DCA-B10C-19BDCEA80441}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{86CA9F54-3CDF-4DCA-B10C-19BDCEA80441}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -302,16 +302,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{551CEB23-CEE8-4D4B-A3FA-D102D0CAEFED}" name="Table1" displayName="Table1" ref="A1:I1048576" totalsRowShown="0">
   <autoFilter ref="A1:I1048576" xr:uid="{551CEB23-CEE8-4D4B-A3FA-D102D0CAEFED}">
-    <filterColumn colId="2">
+    <filterColumn colId="5">
       <filters>
-        <filter val="Deck_A"/>
-        <filter val="Mixer"/>
+        <filter val="Button"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I80">
@@ -631,17 +625,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7FB36C-82A1-495A-A3BC-0255FB535AAF}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I26" activeCellId="1" sqref="H24 I26"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
-    <col min="2" max="9" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="9" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -670,7 +664,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>16</v>
       </c>
@@ -696,7 +690,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>34</v>
       </c>
@@ -722,7 +716,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>21</v>
       </c>
@@ -751,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -780,7 +774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>19</v>
       </c>
@@ -809,7 +803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>18</v>
       </c>
@@ -838,7 +832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>25</v>
       </c>
@@ -867,7 +861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>24</v>
       </c>
@@ -896,7 +890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>23</v>
       </c>
@@ -925,7 +919,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -945,7 +939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>22</v>
       </c>
@@ -974,7 +968,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>17</v>
       </c>
@@ -1003,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>35</v>
       </c>
@@ -1032,7 +1026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1052,7 +1046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>53</v>
       </c>
@@ -1081,7 +1075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1101,7 +1095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>32</v>
       </c>
@@ -1130,7 +1124,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>28</v>
       </c>
@@ -1159,7 +1153,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>29</v>
       </c>
@@ -1188,7 +1182,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -1217,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -1246,7 +1240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -1275,7 +1269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1304,7 +1298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -1333,7 +1327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -1362,7 +1356,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -1391,7 +1385,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -1420,7 +1414,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1440,7 +1434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>74</v>
       </c>
@@ -1469,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -1498,7 +1492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>78</v>
       </c>
@@ -1527,7 +1521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1547,7 +1541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>77</v>
       </c>
@@ -1576,7 +1570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1596,7 +1590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>52</v>
       </c>
@@ -1625,7 +1619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>14</v>
       </c>
@@ -1654,7 +1648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1674,7 +1668,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -1703,7 +1697,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1723,7 +1717,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>11</v>
       </c>
@@ -1752,7 +1746,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1772,7 +1766,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45</v>
       </c>
@@ -1801,7 +1795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1821,7 +1815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>51</v>
       </c>
@@ -1850,7 +1844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1870,7 +1864,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>49</v>
       </c>
@@ -1899,7 +1893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1919,7 +1913,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1948,7 +1942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1968,7 +1962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>70</v>
       </c>
@@ -1997,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2017,7 +2011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>69</v>
       </c>
@@ -2046,7 +2040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>63</v>
       </c>
@@ -2075,7 +2069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>62</v>
       </c>
@@ -2104,7 +2098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2124,7 +2118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2144,7 +2138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2164,7 +2158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2184,7 +2178,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2204,7 +2198,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2224,7 +2218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2244,7 +2238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>37</v>
       </c>
@@ -2273,7 +2267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43</v>
       </c>
@@ -2302,7 +2296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>41</v>
       </c>
@@ -2331,7 +2325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2351,7 +2345,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2371,7 +2365,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2391,7 +2385,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2411,7 +2405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>39</v>
       </c>
@@ -2440,7 +2434,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>8</v>
       </c>
@@ -2469,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>12</v>
       </c>
@@ -2498,7 +2492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2518,7 +2512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2538,7 +2532,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>26</v>
       </c>
@@ -2567,7 +2561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>30</v>
       </c>
@@ -2596,7 +2590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2616,7 +2610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>61</v>
       </c>
@@ -2639,7 +2633,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>68</v>
       </c>
@@ -2662,7 +2656,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>76</v>
       </c>

--- a/InputMappings.xlsx
+++ b/InputMappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f8777753fb3871c/Documents/_Northumbria University Computer Science/Year 3/KV6013 - Computing Project/DJ_Tracker(Parasyte)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{7F99FBFC-95DB-48CC-88E2-296853343486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{999A7662-D26B-45AE-99C9-B20BC97C8301}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{7F99FBFC-95DB-48CC-88E2-296853343486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5BCBEF4-DF57-44E6-BD56-FA2791856882}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{86CA9F54-3CDF-4DCA-B10C-19BDCEA80441}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21525" windowHeight="11295" xr2:uid="{86CA9F54-3CDF-4DCA-B10C-19BDCEA80441}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="71">
   <si>
     <t>Controller</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Buffer</t>
   </si>
   <si>
-    <t>Byte</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -232,6 +229,15 @@
   </si>
   <si>
     <t>5,6,7,8</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Byte(s)</t>
+  </si>
+  <si>
+    <t>ALL</t>
   </si>
 </sst>
 </file>
@@ -301,15 +307,9 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{551CEB23-CEE8-4D4B-A3FA-D102D0CAEFED}" name="Table1" displayName="Table1" ref="A1:I1048576" totalsRowShown="0">
-  <autoFilter ref="A1:I1048576" xr:uid="{551CEB23-CEE8-4D4B-A3FA-D102D0CAEFED}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Button"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I80">
-    <sortCondition ref="H1:H1048576"/>
+  <autoFilter ref="A1:I1048576" xr:uid="{551CEB23-CEE8-4D4B-A3FA-D102D0CAEFED}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I81">
+    <sortCondition ref="C1:C1048576"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{60995D5E-6293-410F-AC99-ABB9453C1FE5}" name="Index" dataDxfId="0"/>
@@ -319,7 +319,7 @@
     <tableColumn id="5" xr3:uid="{1E03823E-5044-4C92-8D2E-4525031CAAE4}" name="Input"/>
     <tableColumn id="6" xr3:uid="{959D3894-5BBF-49A1-B72F-14C5E0D7E8B5}" name="Type"/>
     <tableColumn id="7" xr3:uid="{39FA9E16-1238-482E-B192-91CF8F334454}" name="Buffer"/>
-    <tableColumn id="8" xr3:uid="{B41BCD92-34C7-4EC8-BC7C-E547A0D7A406}" name="Byte"/>
+    <tableColumn id="8" xr3:uid="{B41BCD92-34C7-4EC8-BC7C-E547A0D7A406}" name="Byte(s)"/>
     <tableColumn id="9" xr3:uid="{EF8B5DA8-0B2C-42AA-92A7-2D02C44F113A}" name="Bit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -625,11 +625,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7FB36C-82A1-495A-A3BC-0255FB535AAF}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
     <col min="2" max="9" width="16.28515625" customWidth="1"/>
@@ -637,7 +637,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -658,15 +658,15 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -675,253 +675,247 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
       </c>
       <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>68</v>
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
         <v>64</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
       <c r="I5">
-        <v>2</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9">
-        <v>9</v>
-      </c>
-      <c r="I9">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I10">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -933,44 +927,53 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I12">
-        <v>128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -979,56 +982,50 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -1037,47 +1034,56 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -1086,76 +1092,85 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I19">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1164,259 +1179,253 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
       </c>
       <c r="G22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22">
         <v>64</v>
-      </c>
-      <c r="H22">
-        <v>11</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24">
-        <v>11</v>
-      </c>
-      <c r="I24">
-        <v>8</v>
+        <v>63</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I25">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
       <c r="G26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
         <v>64</v>
-      </c>
-      <c r="H26">
-        <v>11</v>
-      </c>
-      <c r="I26">
-        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I27">
-        <v>64</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28">
-        <v>11</v>
-      </c>
-      <c r="I28">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1428,102 +1437,105 @@
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
         <v>20</v>
       </c>
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -1532,47 +1544,50 @@
         <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1581,74 +1596,83 @@
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35">
+        <v>9</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I36">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I37">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1667,39 +1691,36 @@
       <c r="F38" t="s">
         <v>33</v>
       </c>
+      <c r="G38" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39">
-        <v>12</v>
-      </c>
-      <c r="I39">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -1711,44 +1732,41 @@
         <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
         <v>33</v>
       </c>
+      <c r="G40" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>64</v>
-      </c>
-      <c r="H41">
-        <v>12</v>
-      </c>
-      <c r="I41">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -1760,44 +1778,53 @@
         <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42">
+        <v>14</v>
+      </c>
+      <c r="I42">
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
         <v>31</v>
       </c>
       <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43">
+        <v>14</v>
+      </c>
+      <c r="I43">
         <v>32</v>
       </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H43">
-        <v>13</v>
-      </c>
-      <c r="I43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -1809,44 +1836,53 @@
         <v>31</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44">
+        <v>14</v>
+      </c>
+      <c r="I44">
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
         <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H45">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -1861,12 +1897,21 @@
         <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46">
+        <v>13</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -1878,24 +1923,24 @@
         <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H47">
         <v>13</v>
       </c>
       <c r="I47">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -1907,15 +1952,18 @@
         <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
         <v>33</v>
       </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -1927,24 +1975,24 @@
         <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H49">
         <v>13</v>
       </c>
       <c r="I49">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -1956,44 +2004,47 @@
         <v>31</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
         <v>33</v>
       </c>
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -2005,39 +2056,36 @@
         <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
         <v>33</v>
       </c>
+      <c r="G52" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>64</v>
-      </c>
-      <c r="H53">
-        <v>14</v>
-      </c>
-      <c r="I53">
-        <v>2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2060,7 +2108,7 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H54">
         <v>14</v>
@@ -2089,7 +2137,7 @@
         <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H55">
         <v>14</v>
@@ -2098,9 +2146,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -2109,18 +2157,21 @@
         <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -2129,18 +2180,21 @@
         <v>39</v>
       </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -2149,18 +2203,21 @@
         <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -2172,15 +2229,18 @@
         <v>46</v>
       </c>
       <c r="E59" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -2192,15 +2252,18 @@
         <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -2209,18 +2272,27 @@
         <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>63</v>
+      </c>
+      <c r="H61">
+        <v>14</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -2229,105 +2301,96 @@
         <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62">
+        <v>14</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>64</v>
-      </c>
-      <c r="H63">
-        <v>14</v>
-      </c>
-      <c r="I63">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>64</v>
-      </c>
-      <c r="H64">
-        <v>14</v>
-      </c>
-      <c r="I64">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65">
-        <v>14</v>
-      </c>
-      <c r="I65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -2339,15 +2402,18 @@
         <v>50</v>
       </c>
       <c r="E66" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="G66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -2359,15 +2425,18 @@
         <v>50</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -2376,18 +2445,27 @@
         <v>39</v>
       </c>
       <c r="D68" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E68" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>63</v>
+      </c>
+      <c r="H68">
+        <v>10</v>
+      </c>
+      <c r="I68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -2396,105 +2474,96 @@
         <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E69" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>63</v>
+      </c>
+      <c r="H69">
+        <v>12</v>
+      </c>
+      <c r="I69">
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
+        <v>54</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
         <v>39</v>
       </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" t="s">
-        <v>30</v>
-      </c>
       <c r="D70" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G70" t="s">
-        <v>64</v>
-      </c>
-      <c r="H70">
-        <v>14</v>
-      </c>
-      <c r="I70">
-        <v>128</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E71" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G71" t="s">
-        <v>64</v>
-      </c>
-      <c r="H71">
-        <v>15</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G72" t="s">
-        <v>64</v>
-      </c>
-      <c r="H72">
-        <v>15</v>
-      </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -2506,15 +2575,24 @@
         <v>54</v>
       </c>
       <c r="E73" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G73" t="s">
+        <v>63</v>
+      </c>
+      <c r="H73">
+        <v>12</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -2526,73 +2604,82 @@
         <v>54</v>
       </c>
       <c r="E74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>63</v>
+      </c>
+      <c r="H74">
+        <v>12</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E75" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H75">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I75">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E76" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H76">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I76">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -2604,15 +2691,18 @@
         <v>54</v>
       </c>
       <c r="E77" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="G77" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -2621,21 +2711,21 @@
         <v>39</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E78" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F78" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -2644,16 +2734,16 @@
         <v>39</v>
       </c>
       <c r="D79" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E79" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F79" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2676,7 +2766,7 @@
         <v>9</v>
       </c>
       <c r="G80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
